--- a/IPL/Royal Challengers Bangalore/Shahbaz Ahmed.xlsx
+++ b/IPL/Royal Challengers Bangalore/Shahbaz Ahmed.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,28 +445,31 @@
         <v>Shahbaz Ahmed</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D2" t="str">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>50.00</v>
+        <v>166.66</v>
       </c>
       <c r="H2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Bengaluru</v>
       </c>
       <c r="J2" t="str">
-        <v>May 04 2022</v>
+        <v>April 15 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,28 +480,31 @@
         <v>Shahbaz Ahmed</v>
       </c>
       <c r="C3" t="str">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="str">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>58.33</v>
+        <v>166.66</v>
       </c>
       <c r="H3" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Brabourne</v>
+        <v>Mohali</v>
       </c>
       <c r="J3" t="str">
-        <v>April 23 2022</v>
+        <v>April 20 2023</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -509,339 +515,36 @@
         <v>Shahbaz Ahmed</v>
       </c>
       <c r="C4" t="str">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>150.00</v>
+        <v>50.00</v>
       </c>
       <c r="H4" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="I4" t="str">
-        <v>Ahmedabad</v>
+        <v>Bengaluru</v>
       </c>
       <c r="J4" t="str">
-        <v>May 27 2022</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Shahbaz Ahmed</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2</v>
-      </c>
-      <c r="D5" t="str">
-        <v>2</v>
-      </c>
-      <c r="E5" t="str">
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
-        <v>0</v>
-      </c>
-      <c r="G5" t="str">
-        <v>100.00</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Gujarat Titans</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Brabourne</v>
-      </c>
-      <c r="J5" t="str">
-        <v>April 30 2022</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Shahbaz Ahmed</v>
-      </c>
-      <c r="C6" t="str">
-        <v>26</v>
-      </c>
-      <c r="D6" t="str">
-        <v>22</v>
-      </c>
-      <c r="E6" t="str">
-        <v>1</v>
-      </c>
-      <c r="F6" t="str">
-        <v>0</v>
-      </c>
-      <c r="G6" t="str">
-        <v>118.18</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Lucknow Super Giants</v>
-      </c>
-      <c r="I6" t="str">
-        <v>DY Patil</v>
-      </c>
-      <c r="J6" t="str">
-        <v>April 19 2022</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Shahbaz Ahmed</v>
-      </c>
-      <c r="C7" t="str">
-        <v>32</v>
-      </c>
-      <c r="D7" t="str">
-        <v>21</v>
-      </c>
-      <c r="E7" t="str">
-        <v>3</v>
-      </c>
-      <c r="F7" t="str">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
-        <v>152.38</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Delhi Capitals</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Wankhede</v>
-      </c>
-      <c r="J7" t="str">
-        <v>April 16 2022</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Shahbaz Ahmed</v>
-      </c>
-      <c r="C8" t="str">
-        <v>2</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2</v>
-      </c>
-      <c r="E8" t="str">
-        <v>0</v>
-      </c>
-      <c r="F8" t="str">
-        <v>0</v>
-      </c>
-      <c r="G8" t="str">
-        <v>100.00</v>
-      </c>
-      <c r="H8" t="str">
-        <v>Gujarat Titans</v>
-      </c>
-      <c r="I8" t="str">
-        <v>Brabourne</v>
-      </c>
-      <c r="J8" t="str">
-        <v>April 30 2022</v>
-      </c>
-      <c r="K8" t="str">
-        <v>Titans won by 6 wickets (with 3 balls remaining)</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Shahbaz Ahmed</v>
-      </c>
-      <c r="C9" t="str">
-        <v>32</v>
-      </c>
-      <c r="D9" t="str">
-        <v>21</v>
-      </c>
-      <c r="E9" t="str">
-        <v>3</v>
-      </c>
-      <c r="F9" t="str">
-        <v>1</v>
-      </c>
-      <c r="G9" t="str">
-        <v>152.38</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Delhi Capitals</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Wankhede</v>
-      </c>
-      <c r="J9" t="str">
-        <v>April 16 2022</v>
-      </c>
-      <c r="K9" t="str">
-        <v>RCB won by 16 runs</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Shahbaz Ahmed</v>
-      </c>
-      <c r="C10" t="str">
-        <v>1</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2</v>
-      </c>
-      <c r="E10" t="str">
-        <v>0</v>
-      </c>
-      <c r="F10" t="str">
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
-        <v>50.00</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Chennai Super Kings</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Pune</v>
-      </c>
-      <c r="J10" t="str">
-        <v>May 04 2022</v>
-      </c>
-      <c r="K10" t="str">
-        <v>RCB won by 13 runs</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Shahbaz Ahmed</v>
-      </c>
-      <c r="C11" t="str">
-        <v>12</v>
-      </c>
-      <c r="D11" t="str">
-        <v>8</v>
-      </c>
-      <c r="E11" t="str">
-        <v>1</v>
-      </c>
-      <c r="F11" t="str">
-        <v>1</v>
-      </c>
-      <c r="G11" t="str">
-        <v>150.00</v>
-      </c>
-      <c r="H11" t="str">
-        <v>Rajasthan Royals</v>
-      </c>
-      <c r="I11" t="str">
-        <v>Ahmedabad</v>
-      </c>
-      <c r="J11" t="str">
-        <v>May 27 2022</v>
-      </c>
-      <c r="K11" t="str">
-        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Shahbaz Ahmed</v>
-      </c>
-      <c r="C12" t="str">
-        <v>26</v>
-      </c>
-      <c r="D12" t="str">
-        <v>22</v>
-      </c>
-      <c r="E12" t="str">
-        <v>1</v>
-      </c>
-      <c r="F12" t="str">
-        <v>0</v>
-      </c>
-      <c r="G12" t="str">
-        <v>118.18</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Lucknow Super Giants</v>
-      </c>
-      <c r="I12" t="str">
-        <v>DY Patil</v>
-      </c>
-      <c r="J12" t="str">
-        <v>April 19 2022</v>
-      </c>
-      <c r="K12" t="str">
-        <v>RCB won by 18 runs</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Shahbaz Ahmed</v>
-      </c>
-      <c r="C13" t="str">
-        <v>7</v>
-      </c>
-      <c r="D13" t="str">
-        <v>12</v>
-      </c>
-      <c r="E13" t="str">
-        <v>1</v>
-      </c>
-      <c r="F13" t="str">
-        <v>0</v>
-      </c>
-      <c r="G13" t="str">
-        <v>58.33</v>
-      </c>
-      <c r="H13" t="str">
-        <v>Sunrisers Hyderabad</v>
-      </c>
-      <c r="I13" t="str">
-        <v>Brabourne</v>
-      </c>
-      <c r="J13" t="str">
-        <v>April 23 2022</v>
-      </c>
-      <c r="K13" t="str">
-        <v>Sunrisers won by 9 wickets (with 72 balls remaining)</v>
+        <v>April 23 2023</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>